--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>NewAccountName</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>IntialDepositAmount</t>
+  </si>
+  <si>
+    <t>Saravana</t>
+  </si>
+  <si>
+    <t>Ajith</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t>Prabu</t>
   </si>
 </sst>
 </file>
@@ -419,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +473,14 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -478,8 +505,14 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,8 +537,14 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -530,8 +569,14 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -556,8 +601,14 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>400</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -582,8 +633,14 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -607,6 +664,12 @@
       </c>
       <c r="H7">
         <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
